--- a/medicine/Psychotrope/Lie_(boisson)/Lie_(boisson).xlsx
+++ b/medicine/Psychotrope/Lie_(boisson)/Lie_(boisson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En œnologie et en brasserie, la lie est un résidu de levures mortes (et éventuellement quelques résidus végétaux) qui sédimentent au fond du contenant à l'issue de la fermentation.
 Au cours de la fermentation alcoolique, puis de la fermentation malolactique, des particules apparaissent dans le vin ou la bière, c'est la lie. Elle est constituée de levures, de bactéries et de composés organiques floculés et précipités. 
@@ -514,7 +526,9 @@
           <t>Élevage sur lie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lies peuvent être conservées en partie : un soutirage dès la fin de fermentation élimine les lies les plus grosses (résidus solides de raisin, terre présente sur les grains de raisin) et conserve les lies fines (levures mortes). Les éléments constituant les lies vont s'hydrolyser en éléments de plus petite taille et plus solubles. Ils vont conférer des qualités au vin : gras, rondeur et affiner la vivacité et les arômes.
 </t>
@@ -547,10 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distillation
-La lie peut être distillée, résultant une eau-de-vie de lie. Cette eau-de-vie est commune en Suisse.
-Alimentaire
-La lie a été utilisée pour la conservation de la viande.
+          <t>Distillation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lie peut être distillée, résultant une eau-de-vie de lie. Cette eau-de-vie est commune en Suisse.
 </t>
         </is>
       </c>
@@ -576,12 +593,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Autres lies</t>
+          <t>Utilisation</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">La lie, comme dépôt constitué par la précipitation des  matières en suspension, se trouve également dans la bière, le cidre, le saké, le vinaigre et l'huile[1].
+          <t>Alimentaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lie a été utilisée pour la conservation de la viande.
 </t>
         </is>
       </c>
@@ -607,10 +630,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Autres lies</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lie, comme dépôt constitué par la précipitation des  matières en suspension, se trouve également dans la bière, le cidre, le saké, le vinaigre et l'huile.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lie_(boisson)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lie_(boisson)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Utilisation au sens figuré</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est évoqué de manière imagée « la lie » lorsqu'un individu souhaite désigner péjorativement les résidus, les déchets ou les couches sociales considérées comme inférieures (voir racaille).
 L'expression « Boire le calice jusqu'à la lie » signifie aller jusqu'au bout d'un acte désagréable.
